--- a/Project/SmartHome.xlsx
+++ b/Project/SmartHome.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5768A0-598C-4F61-AB52-87B2C1168B6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076590D3-417B-492F-BC43-3F5F99041F3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="15360" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thu" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Nội dung</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>Nhân công</t>
-  </si>
-  <si>
-    <t>Thanh toán</t>
-  </si>
-  <si>
-    <t>Chưa thanh toán</t>
   </si>
   <si>
     <t>A Khơ</t>
@@ -258,6 +252,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -275,9 +272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -584,16 +578,16 @@
       </c>
     </row>
     <row r="3" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
+      <c r="L3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L5" s="4" t="s">
@@ -650,7 +644,7 @@
   <dimension ref="K3:P14"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:M5"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,17 +666,17 @@
       </c>
     </row>
     <row r="4" spans="11:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="K4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="19"/>
     </row>
     <row r="5" spans="11:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="19"/>
     </row>
     <row r="6" spans="11:16" x14ac:dyDescent="0.25">
@@ -693,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N6" s="20"/>
     </row>
@@ -705,9 +699,7 @@
         <f>Mua_sam_linh_kien</f>
         <v>7341980</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="11:16" x14ac:dyDescent="0.25">
@@ -755,11 +747,6 @@
   <mergeCells count="1">
     <mergeCell ref="K4:M5"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:N12" xr:uid="{57733A48-D2A0-4B53-81BD-DD553CAAA36D}">
-      <formula1>"Đã thanh toán, Chưa thanh toán"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="K8" location="'Nhân Công'!A1" display="Nhân công" xr:uid="{2009E5CF-46BD-4B96-AAA4-E3C7C35E85FD}"/>
     <hyperlink ref="K7" location="'Linh kiện'!A1" display="Mua sắm linh kiện" xr:uid="{969864DA-9A2D-48B8-9F7E-22D91903C0DE}"/>
@@ -772,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD49A106-6870-47BE-BEAE-1CF90A276984}">
   <dimension ref="J3:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,13 +775,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
       <c r="P3" s="11">
         <f>SUM(M6:M28)</f>
         <v>7341980</v>
@@ -804,11 +791,11 @@
       </c>
     </row>
     <row r="4" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J5" s="15" t="s">
@@ -826,10 +813,17 @@
       <c r="N5" s="13" t="s">
         <v>9</v>
       </c>
+      <c r="P5" s="1">
+        <f>SUM(M6:M9)</f>
+        <v>6341980</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K6" s="6">
         <v>1</v>
@@ -843,10 +837,17 @@
       <c r="N6" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="P6" s="1">
+        <f>SUM(M10)</f>
+        <v>1000000</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J7" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K7" s="6">
         <v>1</v>
@@ -863,7 +864,7 @@
     </row>
     <row r="8" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8" s="6">
         <v>1</v>
@@ -880,7 +881,7 @@
     </row>
     <row r="9" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="6">
         <v>1</v>
@@ -897,9 +898,9 @@
     </row>
     <row r="10" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="32">
+        <v>18</v>
+      </c>
+      <c r="K10" s="26">
         <v>1</v>
       </c>
       <c r="L10" s="23">
@@ -909,7 +910,7 @@
         <v>1000000</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="10:17" x14ac:dyDescent="0.25">
@@ -1051,7 +1052,7 @@
   <dimension ref="J5:O15"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,11 +1063,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
       <c r="N5" s="11">
         <f>SUM(K8:K15)</f>
         <v>0</v>
@@ -1076,9 +1077,9 @@
       </c>
     </row>
     <row r="6" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J7" s="9" t="s">
